--- a/SoftwareDesignUsingNLP/data/Banking Data/output.xlsx
+++ b/SoftwareDesignUsingNLP/data/Banking Data/output.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>User</t>
   </si>
@@ -32,70 +29,52 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>R01</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
     <t xml:space="preserve"> deposit cheque</t>
   </si>
   <si>
-    <t>['Verify PIN', 'Deposit Cheque']</t>
-  </si>
-  <si>
-    <t>{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}{'Cus_Nme', 'Acc_num', 'Acc_type', 'Amt_deposit'}</t>
-  </si>
-  <si>
-    <t>R02</t>
+    <t>['Verify_PIN', 'Deposit_Cheque']</t>
+  </si>
+  <si>
+    <t>{'Amt_avail', 'Debit_pin', 'To_AcctNum', 'Cus_Nme', 'From_AcctNum'}{'Amt_avail', 'Debit_pin', 'To_AcctNum', 'Acc_type', 'From_AcctNum'}</t>
   </si>
   <si>
     <t xml:space="preserve"> withdraw cash</t>
   </si>
   <si>
-    <t>['Withdraw cash', 'Verify PIN']</t>
-  </si>
-  <si>
-    <t>{'Max_limit', 'Debit_pin', 'Cus_Nme', 'Acc_num', 'Bill_type'}{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}</t>
-  </si>
-  <si>
-    <t>R03</t>
+    <t>['Withdraw_cash', 'Verify_PIN']</t>
+  </si>
+  <si>
+    <t>{'Debit_pin', 'Max_limit', 'Bill_type', 'Amt_wdrl', 'Bill_amt'}{'Amt_avail', 'Debit_pin', 'To_AcctNum', 'Cus_Nme', 'From_AcctNum'}</t>
   </si>
   <si>
     <t xml:space="preserve"> transfer money</t>
   </si>
   <si>
-    <t>['Transfer Money', 'Verify PIN']</t>
-  </si>
-  <si>
-    <t>{'To_AcctNum', 'Cus_Nme', 'From_AcctNum', 'Amt_avail', 'Amt_trnsfr'}{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}</t>
-  </si>
-  <si>
-    <t>R04</t>
+    <t>['Transfer_Money', 'Verify_PIN']</t>
+  </si>
+  <si>
+    <t>{'Amt_avail', 'Amt_trnsfr', 'To_AcctNum', 'Acc_type', 'From_AcctNum'}{'Amt_avail', 'Debit_pin', 'To_AcctNum', 'Cus_Nme', 'From_AcctNum'}</t>
   </si>
   <si>
     <t xml:space="preserve"> pay my utility bills online</t>
   </si>
   <si>
-    <t>['Pay Bills ']</t>
-  </si>
-  <si>
-    <t>{'Bill_type', 'Amt_avail', 'Debit_pin', 'Acc_num'}</t>
-  </si>
-  <si>
-    <t>R05</t>
+    <t>['Pay_Bills ', 'Utility']</t>
+  </si>
+  <si>
+    <t>{'Bill_type', 'Bill_amt', 'Acc_type'}[]</t>
   </si>
   <si>
     <t xml:space="preserve"> apply for a loan</t>
   </si>
   <si>
-    <t>['Apply loan', 'Credit_check']</t>
-  </si>
-  <si>
-    <t>{'To_AcctNum', 'Debit_pin', 'Cus_Nme', 'From_AcctNum', 'Acc_num'}{'Loan_purp', 'Cred_Score', 'Loan_Amt'}</t>
-  </si>
-  <si>
-    <t>R06</t>
+    <t>['Apply_loan', 'Credit_check']</t>
+  </si>
+  <si>
+    <t>{'Amt_avail', 'From_AcctNum', 'Loan_purp', 'To_AcctNum', 'Loan_Amt'}{'Amt_avail', 'From_AcctNum', 'Cred_Score', 'To_AcctNum', 'Loan_Amt'}</t>
   </si>
   <si>
     <t>Banker</t>
@@ -104,64 +83,46 @@
     <t xml:space="preserve"> request for check books</t>
   </si>
   <si>
-    <t>['Cheque Services', 'Verify PIN']</t>
-  </si>
-  <si>
-    <t>{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}</t>
-  </si>
-  <si>
-    <t>R07</t>
+    <t>['Verify_PIN', 'View_Account ']</t>
+  </si>
+  <si>
+    <t>{'Amt_avail', 'Debit_pin', 'To_AcctNum', 'Cus_Nme', 'From_AcctNum'}{'Amt_avail', 'Debit_pin', 'Acc_num', 'To_AcctNum', 'From_AcctNum'}</t>
   </si>
   <si>
     <t xml:space="preserve"> restock sufficient cash</t>
   </si>
   <si>
-    <t>['Restock cash', 'Limit Cash']</t>
-  </si>
-  <si>
-    <t>{'Max_limit', 'Cus_Nme', 'Acc_num', 'Acc_type'}{'Debit_pin', 'Cus_Nme', 'Acc_num', 'Acc_type', 'Amt_deposit'}</t>
-  </si>
-  <si>
-    <t>R08</t>
+    <t>['Restock_cash', 'Limit_Cash']</t>
+  </si>
+  <si>
+    <t>{'Amt_deposit', 'Acc_type', 'Bill_amt', 'Max_limit'}{'Amt_deposit', 'Max_limit', 'Bill_amt', 'Loan_Amt'}</t>
   </si>
   <si>
     <t xml:space="preserve"> limit the cash withdrawl</t>
   </si>
   <si>
-    <t>['Limit Cash', 'Withdraw cash']</t>
-  </si>
-  <si>
-    <t>{'Debit_pin', 'Cus_Nme', 'Acc_num', 'Acc_type', 'Amt_deposit'}{'Max_limit', 'Debit_pin', 'Cus_Nme', 'Acc_num', 'Bill_type'}</t>
-  </si>
-  <si>
-    <t>R09</t>
+    <t>['Limit_Cash', 'Withdraw_cash']</t>
+  </si>
+  <si>
+    <t>{'Amt_deposit', 'Max_limit', 'Bill_amt', 'Loan_Amt'}{'Debit_pin', 'Max_limit', 'Bill_type', 'Amt_wdrl', 'Bill_amt'}</t>
   </si>
   <si>
     <t xml:space="preserve"> review all transactions</t>
   </si>
   <si>
-    <t>['Review transactions', 'View Account ']</t>
-  </si>
-  <si>
-    <t>{'Acc_num'}{'Cust_Addr', 'Cus_Nme', 'Acc_num', 'Loan_Amt'}</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> review the credit history and</t>
-  </si>
-  <si>
-    <t>['Credit_check', 'Review transactions']</t>
-  </si>
-  <si>
-    <t>{'Loan_purp', 'Cred_Score', 'Loan_Amt'}{'Acc_num'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apply for loans</t>
-  </si>
-  <si>
-    <t>R11</t>
+    <t>['Review_transactions', 'View_Account ']</t>
+  </si>
+  <si>
+    <t>{'Loan_Amt', 'Cus_Nme', 'Amt_deposit', 'Bill_amt'}{'Amt_avail', 'Debit_pin', 'Acc_num', 'To_AcctNum', 'From_AcctNum'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> review the credit history and, apply for loans</t>
+  </si>
+  <si>
+    <t>['View_Account ', 'Credit_check'],['Apply_loan', 'Credit_check']</t>
+  </si>
+  <si>
+    <t>{'Amt_avail', 'Debit_pin', 'Acc_num', 'To_AcctNum', 'From_AcctNum'}{'Amt_avail', 'From_AcctNum', 'Cred_Score', 'To_AcctNum', 'Loan_Amt'},{'Amt_avail', 'From_AcctNum', 'Loan_purp', 'To_AcctNum', 'Loan_Amt'}{'Amt_avail', 'From_AcctNum', 'Cred_Score', 'To_AcctNum', 'Loan_Amt'}</t>
   </si>
   <si>
     <t xml:space="preserve"> operate locker</t>
@@ -516,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +485,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,211 +498,158 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s"/>
+      <c r="D12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
